--- a/Datasets/RMS_Mateo_2sec.xlsx
+++ b/Datasets/RMS_Mateo_2sec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Drew Jennings\Documents\GitHub\BCI-UBC\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE250E5-E925-489B-B5EB-093732597E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA2B2AD-6A63-47A0-8135-58D7A7B13302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,259 +35,280 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
-  <si>
-    <t>movement</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>movement</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>movement</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>movement</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>movement</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>movement</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>movement</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>movement</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>movement</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>movement</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>movement</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>movement</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>movement</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>movement</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>movement</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>movement</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>movement</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>movement</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>movement</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>movement</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>movement</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>movement</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>movement</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>movement</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>movement</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>movement</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>movement</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>movement</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>movement</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>movement</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>movement</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>movement</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>movement</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>movement</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>movement</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>movement</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>movement</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>movement</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>movement</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>movement</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>movement</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="86">
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
+    <t>Channel 1</t>
+  </si>
+  <si>
+    <t>Channel 2</t>
+  </si>
+  <si>
+    <t>Channel 3</t>
+  </si>
+  <si>
+    <t>Channel 4</t>
+  </si>
+  <si>
+    <t>Action</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -630,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD03870-AD17-4704-874C-F0BF1C266111}">
-  <dimension ref="A1:E90"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="I66" sqref="I65:I66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,170 +664,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>1.52074</v>
-      </c>
-      <c r="B1" s="1">
-        <v>3.5090300000000001</v>
-      </c>
-      <c r="C1" s="1">
-        <v>7.7234499999999997</v>
-      </c>
-      <c r="D1" s="1">
-        <v>4.2618400000000003</v>
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
+        <v>84</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>2.1635399999999998</v>
+        <v>1.52074</v>
       </c>
       <c r="B2" s="1">
-        <v>4.5164799999999996</v>
+        <v>3.5090300000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>7.9439099999999998</v>
+        <v>7.7234499999999997</v>
       </c>
       <c r="D2" s="1">
-        <v>5.0763999999999996</v>
+        <v>4.2618400000000003</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1.85294</v>
+        <v>2.1635399999999998</v>
       </c>
       <c r="B3" s="1">
-        <v>5.2365199999999996</v>
+        <v>4.5164799999999996</v>
       </c>
       <c r="C3" s="1">
-        <v>9.0602599999999995</v>
+        <v>7.9439099999999998</v>
       </c>
       <c r="D3" s="1">
-        <v>3.74316</v>
+        <v>5.0763999999999996</v>
       </c>
       <c r="E3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>1.80511</v>
+        <v>1.85294</v>
       </c>
       <c r="B4" s="1">
-        <v>5.0551700000000004</v>
+        <v>5.2365199999999996</v>
       </c>
       <c r="C4" s="1">
-        <v>5.9833400000000001</v>
+        <v>9.0602599999999995</v>
       </c>
       <c r="D4" s="1">
-        <v>4.4771400000000003</v>
+        <v>3.74316</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>1.81474</v>
+        <v>1.80511</v>
       </c>
       <c r="B5" s="1">
-        <v>6.90489</v>
+        <v>5.0551700000000004</v>
       </c>
       <c r="C5" s="1">
-        <v>11.103199999999999</v>
+        <v>5.9833400000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>5.90015</v>
+        <v>4.4771400000000003</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>1.86497</v>
+        <v>1.81474</v>
       </c>
       <c r="B6" s="1">
-        <v>4.2774200000000002</v>
+        <v>6.90489</v>
       </c>
       <c r="C6" s="1">
-        <v>4.4224699999999997</v>
+        <v>11.103199999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>4.3710599999999999</v>
+        <v>5.90015</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>2.58927</v>
+        <v>1.86497</v>
       </c>
       <c r="B7" s="1">
-        <v>4.4994800000000001</v>
+        <v>4.2774200000000002</v>
       </c>
       <c r="C7" s="1">
-        <v>6.3857900000000001</v>
+        <v>4.4224699999999997</v>
       </c>
       <c r="D7" s="1">
-        <v>4.5697299999999998</v>
+        <v>4.3710599999999999</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>1.90493</v>
+        <v>2.58927</v>
       </c>
       <c r="B8" s="1">
-        <v>4.2665600000000001</v>
+        <v>4.4994800000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>5.7225999999999999</v>
+        <v>6.3857900000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>4.0081499999999997</v>
+        <v>4.5697299999999998</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>2.2378</v>
+        <v>1.90493</v>
       </c>
       <c r="B9" s="1">
-        <v>4.8948499999999999</v>
+        <v>4.2665600000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>12.843299999999999</v>
+        <v>5.7225999999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>6.05227</v>
+        <v>4.0081499999999997</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>1.98</v>
+        <v>2.2378</v>
       </c>
       <c r="B10" s="1">
-        <v>4.4621000000000004</v>
+        <v>4.8948499999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>7.1036000000000001</v>
+        <v>12.843299999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>4.3781999999999996</v>
+        <v>6.05227</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -814,152 +835,152 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>2.0552000000000001</v>
+        <v>1.98</v>
       </c>
       <c r="B11" s="1">
-        <v>5.2427999999999999</v>
+        <v>4.4621000000000004</v>
       </c>
       <c r="C11" s="1">
-        <v>4.1177999999999999</v>
+        <v>7.1036000000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>4.3513999999999999</v>
+        <v>4.3781999999999996</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>1.7473000000000001</v>
+        <v>2.0552000000000001</v>
       </c>
       <c r="B12" s="1">
-        <v>5.4848999999999997</v>
+        <v>5.2427999999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>9.9395000000000007</v>
+        <v>4.1177999999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>5.633</v>
+        <v>4.3513999999999999</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>1.7385999999999999</v>
+        <v>1.7473000000000001</v>
       </c>
       <c r="B13" s="1">
-        <v>3.9737</v>
+        <v>5.4848999999999997</v>
       </c>
       <c r="C13" s="1">
-        <v>5.9154999999999998</v>
+        <v>9.9395000000000007</v>
       </c>
       <c r="D13" s="1">
-        <v>3.7608999999999999</v>
+        <v>5.633</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>2.2822</v>
+        <v>1.7385999999999999</v>
       </c>
       <c r="B14" s="1">
-        <v>5.7729999999999997</v>
+        <v>3.9737</v>
       </c>
       <c r="C14" s="1">
-        <v>8.2574000000000005</v>
+        <v>5.9154999999999998</v>
       </c>
       <c r="D14" s="1">
-        <v>4.7008999999999999</v>
+        <v>3.7608999999999999</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>1.9298999999999999</v>
+        <v>2.2822</v>
       </c>
       <c r="B15" s="1">
-        <v>4.9901999999999997</v>
+        <v>5.7729999999999997</v>
       </c>
       <c r="C15" s="1">
-        <v>5.9821</v>
+        <v>8.2574000000000005</v>
       </c>
       <c r="D15" s="1">
-        <v>6.1157000000000004</v>
+        <v>4.7008999999999999</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>1.8673</v>
+        <v>1.9298999999999999</v>
       </c>
       <c r="B16" s="1">
-        <v>4.9554</v>
+        <v>4.9901999999999997</v>
       </c>
       <c r="C16" s="1">
-        <v>8.2112999999999996</v>
+        <v>5.9821</v>
       </c>
       <c r="D16" s="1">
-        <v>4.516</v>
+        <v>6.1157000000000004</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>2.3092999999999999</v>
+        <v>1.8673</v>
       </c>
       <c r="B17" s="1">
-        <v>3.8395999999999999</v>
+        <v>4.9554</v>
       </c>
       <c r="C17" s="1">
-        <v>3.5245000000000002</v>
+        <v>8.2112999999999996</v>
       </c>
       <c r="D17" s="1">
-        <v>3.5070000000000001</v>
+        <v>4.516</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>1.7397</v>
+        <v>2.3092999999999999</v>
       </c>
       <c r="B18" s="1">
-        <v>7.0830000000000002</v>
+        <v>3.8395999999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>7.9244000000000003</v>
+        <v>3.5245000000000002</v>
       </c>
       <c r="D18" s="1">
-        <v>7.2226999999999997</v>
+        <v>3.5070000000000001</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>2.3230400000000002</v>
+        <v>1.7397</v>
       </c>
       <c r="B19" s="1">
-        <v>4.52956</v>
+        <v>7.0830000000000002</v>
       </c>
       <c r="C19" s="1">
-        <v>7.4328900000000004</v>
+        <v>7.9244000000000003</v>
       </c>
       <c r="D19" s="1">
-        <v>5.2365300000000001</v>
+        <v>7.2226999999999997</v>
       </c>
       <c r="E19" t="s">
         <v>16</v>
@@ -967,152 +988,152 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>1.5524100000000001</v>
+        <v>2.3230400000000002</v>
       </c>
       <c r="B20" s="1">
-        <v>6.1061699999999997</v>
+        <v>4.52956</v>
       </c>
       <c r="C20" s="1">
-        <v>3.8331599999999999</v>
+        <v>7.4328900000000004</v>
       </c>
       <c r="D20" s="1">
-        <v>5.4744000000000002</v>
+        <v>5.2365300000000001</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>2.3946900000000002</v>
+        <v>1.5524100000000001</v>
       </c>
       <c r="B21" s="1">
-        <v>5.9429100000000004</v>
+        <v>6.1061699999999997</v>
       </c>
       <c r="C21" s="1">
-        <v>10.215199999999999</v>
+        <v>3.8331599999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>7.0391000000000004</v>
+        <v>5.4744000000000002</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>2.37263</v>
+        <v>2.3946900000000002</v>
       </c>
       <c r="B22" s="1">
-        <v>4.1483699999999999</v>
+        <v>5.9429100000000004</v>
       </c>
       <c r="C22" s="1">
-        <v>5.1339399999999999</v>
+        <v>10.215199999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>4.53322</v>
+        <v>7.0391000000000004</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>2.2671999999999999</v>
+        <v>2.37263</v>
       </c>
       <c r="B23" s="1">
-        <v>5.5077400000000001</v>
+        <v>4.1483699999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>5.3257000000000003</v>
+        <v>5.1339399999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>7.5488900000000001</v>
+        <v>4.53322</v>
       </c>
       <c r="E23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>2.23305</v>
+        <v>2.2671999999999999</v>
       </c>
       <c r="B24" s="1">
-        <v>4.5204399999999998</v>
+        <v>5.5077400000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>4.96929</v>
+        <v>5.3257000000000003</v>
       </c>
       <c r="D24" s="1">
-        <v>4.4401000000000002</v>
+        <v>7.5488900000000001</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>1.8226</v>
+        <v>2.23305</v>
       </c>
       <c r="B25" s="1">
-        <v>6.5193000000000003</v>
+        <v>4.5204399999999998</v>
       </c>
       <c r="C25" s="1">
-        <v>9.0198</v>
+        <v>4.96929</v>
       </c>
       <c r="D25" s="1">
-        <v>6.0107200000000001</v>
+        <v>4.4401000000000002</v>
       </c>
       <c r="E25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>2.3986700000000001</v>
+        <v>1.8226</v>
       </c>
       <c r="B26" s="1">
-        <v>7.1077700000000004</v>
+        <v>6.5193000000000003</v>
       </c>
       <c r="C26" s="1">
-        <v>3.9189600000000002</v>
+        <v>9.0198</v>
       </c>
       <c r="D26" s="1">
-        <v>5.16153</v>
+        <v>6.0107200000000001</v>
       </c>
       <c r="E26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>1.7932699999999999</v>
+        <v>2.3986700000000001</v>
       </c>
       <c r="B27" s="1">
-        <v>4.9289800000000001</v>
+        <v>7.1077700000000004</v>
       </c>
       <c r="C27" s="1">
-        <v>6.9838199999999997</v>
+        <v>3.9189600000000002</v>
       </c>
       <c r="D27" s="1">
-        <v>5.2503500000000001</v>
+        <v>5.16153</v>
       </c>
       <c r="E27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>2.0876999999999999</v>
+        <v>1.7932699999999999</v>
       </c>
       <c r="B28" s="1">
-        <v>4.9009</v>
+        <v>4.9289800000000001</v>
       </c>
       <c r="C28" s="1">
-        <v>7.7319000000000004</v>
+        <v>6.9838199999999997</v>
       </c>
       <c r="D28" s="1">
-        <v>5.1368</v>
+        <v>5.2503500000000001</v>
       </c>
       <c r="E28" t="s">
         <v>24</v>
@@ -1120,152 +1141,152 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>1.4758</v>
+        <v>2.0876999999999999</v>
       </c>
       <c r="B29" s="1">
-        <v>4.6753</v>
+        <v>4.9009</v>
       </c>
       <c r="C29" s="1">
-        <v>4.4364999999999997</v>
+        <v>7.7319000000000004</v>
       </c>
       <c r="D29" s="1">
-        <v>4.1406000000000001</v>
+        <v>5.1368</v>
       </c>
       <c r="E29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>2.5074999999999998</v>
+        <v>1.4758</v>
       </c>
       <c r="B30" s="1">
-        <v>5.7154999999999996</v>
+        <v>4.6753</v>
       </c>
       <c r="C30" s="1">
-        <v>7.7611999999999997</v>
+        <v>4.4364999999999997</v>
       </c>
       <c r="D30" s="1">
-        <v>4.9553000000000003</v>
+        <v>4.1406000000000001</v>
       </c>
       <c r="E30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>2.0051999999999999</v>
+        <v>2.5074999999999998</v>
       </c>
       <c r="B31" s="1">
-        <v>5.9447999999999999</v>
+        <v>5.7154999999999996</v>
       </c>
       <c r="C31" s="1">
-        <v>4.9756999999999998</v>
+        <v>7.7611999999999997</v>
       </c>
       <c r="D31" s="1">
-        <v>5.1304999999999996</v>
+        <v>4.9553000000000003</v>
       </c>
       <c r="E31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>1.9173</v>
+        <v>2.0051999999999999</v>
       </c>
       <c r="B32" s="1">
-        <v>5.5683999999999996</v>
+        <v>5.9447999999999999</v>
       </c>
       <c r="C32" s="1">
-        <v>9.1</v>
+        <v>4.9756999999999998</v>
       </c>
       <c r="D32" s="1">
-        <v>6.7569999999999997</v>
+        <v>5.1304999999999996</v>
       </c>
       <c r="E32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>1.9021999999999999</v>
+        <v>1.9173</v>
       </c>
       <c r="B33" s="1">
-        <v>5.6825999999999999</v>
+        <v>5.5683999999999996</v>
       </c>
       <c r="C33" s="1">
-        <v>5.4363999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="D33" s="1">
-        <v>5.1909000000000001</v>
+        <v>6.7569999999999997</v>
       </c>
       <c r="E33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>2.2050000000000001</v>
+        <v>1.9021999999999999</v>
       </c>
       <c r="B34" s="1">
-        <v>6.6509</v>
+        <v>5.6825999999999999</v>
       </c>
       <c r="C34" s="1">
-        <v>8.1263000000000005</v>
+        <v>5.4363999999999999</v>
       </c>
       <c r="D34" s="1">
-        <v>6.8895999999999997</v>
+        <v>5.1909000000000001</v>
       </c>
       <c r="E34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>2.1625999999999999</v>
+        <v>2.2050000000000001</v>
       </c>
       <c r="B35" s="1">
-        <v>4.7050999999999998</v>
+        <v>6.6509</v>
       </c>
       <c r="C35" s="1">
-        <v>4.5685000000000002</v>
+        <v>8.1263000000000005</v>
       </c>
       <c r="D35" s="1">
-        <v>5.1085000000000003</v>
+        <v>6.8895999999999997</v>
       </c>
       <c r="E35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>1.9432</v>
+        <v>2.1625999999999999</v>
       </c>
       <c r="B36" s="1">
-        <v>5.3761999999999999</v>
+        <v>4.7050999999999998</v>
       </c>
       <c r="C36" s="1">
-        <v>7.2610000000000001</v>
+        <v>4.5685000000000002</v>
       </c>
       <c r="D36" s="1">
-        <v>5.4132999999999996</v>
+        <v>5.1085000000000003</v>
       </c>
       <c r="E36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>2.4577</v>
+        <v>1.9432</v>
       </c>
       <c r="B37" s="1">
-        <v>4.4402999999999997</v>
+        <v>5.3761999999999999</v>
       </c>
       <c r="C37" s="1">
-        <v>6.6405000000000003</v>
+        <v>7.2610000000000001</v>
       </c>
       <c r="D37" s="1">
-        <v>4.2674000000000003</v>
+        <v>5.4132999999999996</v>
       </c>
       <c r="E37" t="s">
         <v>32</v>
@@ -1273,152 +1294,152 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>1.6711</v>
+        <v>2.4577</v>
       </c>
       <c r="B38" s="1">
-        <v>4.9142999999999999</v>
+        <v>4.4402999999999997</v>
       </c>
       <c r="C38" s="1">
-        <v>3.5844999999999998</v>
+        <v>6.6405000000000003</v>
       </c>
       <c r="D38" s="1">
-        <v>4.6993999999999998</v>
+        <v>4.2674000000000003</v>
       </c>
       <c r="E38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>1.7145999999999999</v>
+        <v>1.6711</v>
       </c>
       <c r="B39" s="1">
-        <v>4.8836000000000004</v>
+        <v>4.9142999999999999</v>
       </c>
       <c r="C39" s="1">
-        <v>5.9953000000000003</v>
+        <v>3.5844999999999998</v>
       </c>
       <c r="D39" s="1">
-        <v>5.0853000000000002</v>
+        <v>4.6993999999999998</v>
       </c>
       <c r="E39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>1.8159000000000001</v>
+        <v>1.7145999999999999</v>
       </c>
       <c r="B40" s="1">
-        <v>4.4516</v>
+        <v>4.8836000000000004</v>
       </c>
       <c r="C40" s="1">
-        <v>4.4057000000000004</v>
+        <v>5.9953000000000003</v>
       </c>
       <c r="D40" s="1">
-        <v>4.1574</v>
+        <v>5.0853000000000002</v>
       </c>
       <c r="E40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>2.3258999999999999</v>
+        <v>1.8159000000000001</v>
       </c>
       <c r="B41" s="1">
-        <v>6.0087000000000002</v>
+        <v>4.4516</v>
       </c>
       <c r="C41" s="1">
-        <v>9.2609999999999992</v>
+        <v>4.4057000000000004</v>
       </c>
       <c r="D41" s="1">
-        <v>6.4368999999999996</v>
+        <v>4.1574</v>
       </c>
       <c r="E41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>1.8895999999999999</v>
+        <v>2.3258999999999999</v>
       </c>
       <c r="B42" s="1">
-        <v>4.1007999999999996</v>
+        <v>6.0087000000000002</v>
       </c>
       <c r="C42" s="1">
-        <v>3.8113999999999999</v>
+        <v>9.2609999999999992</v>
       </c>
       <c r="D42" s="1">
-        <v>3.5653999999999999</v>
+        <v>6.4368999999999996</v>
       </c>
       <c r="E42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>2.1694</v>
+        <v>1.8895999999999999</v>
       </c>
       <c r="B43" s="1">
-        <v>5.8078000000000003</v>
+        <v>4.1007999999999996</v>
       </c>
       <c r="C43" s="1">
-        <v>6.9634</v>
+        <v>3.8113999999999999</v>
       </c>
       <c r="D43" s="1">
-        <v>7.0583</v>
+        <v>3.5653999999999999</v>
       </c>
       <c r="E43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>1.8187</v>
+        <v>2.1694</v>
       </c>
       <c r="B44" s="1">
-        <v>4.6078000000000001</v>
+        <v>5.8078000000000003</v>
       </c>
       <c r="C44" s="1">
-        <v>4.2329999999999997</v>
+        <v>6.9634</v>
       </c>
       <c r="D44" s="1">
-        <v>4.7194000000000003</v>
+        <v>7.0583</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>2.1766000000000001</v>
+        <v>1.8187</v>
       </c>
       <c r="B45" s="1">
-        <v>5.1323999999999996</v>
+        <v>4.6078000000000001</v>
       </c>
       <c r="C45" s="1">
-        <v>7.5095999999999998</v>
+        <v>4.2329999999999997</v>
       </c>
       <c r="D45" s="1">
-        <v>5.3559000000000001</v>
+        <v>4.7194000000000003</v>
       </c>
       <c r="E45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>2.3203</v>
+        <v>2.1766000000000001</v>
       </c>
       <c r="B46" s="1">
-        <v>8.7074999999999996</v>
+        <v>5.1323999999999996</v>
       </c>
       <c r="C46" s="1">
-        <v>8.3899000000000008</v>
+        <v>7.5095999999999998</v>
       </c>
       <c r="D46" s="1">
-        <v>7.9702000000000002</v>
+        <v>5.3559000000000001</v>
       </c>
       <c r="E46" t="s">
         <v>40</v>
@@ -1426,152 +1447,152 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>1.9314</v>
+        <v>2.3203</v>
       </c>
       <c r="B47" s="1">
-        <v>5.298</v>
+        <v>8.7074999999999996</v>
       </c>
       <c r="C47" s="1">
-        <v>4.5838999999999999</v>
+        <v>8.3899000000000008</v>
       </c>
       <c r="D47" s="1">
-        <v>4.5677000000000003</v>
+        <v>7.9702000000000002</v>
       </c>
       <c r="E47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>1.8837999999999999</v>
+        <v>1.9314</v>
       </c>
       <c r="B48" s="1">
-        <v>4.7632000000000003</v>
+        <v>5.298</v>
       </c>
       <c r="C48" s="1">
-        <v>4.6562999999999999</v>
+        <v>4.5838999999999999</v>
       </c>
       <c r="D48" s="1">
-        <v>5.2325999999999997</v>
+        <v>4.5677000000000003</v>
       </c>
       <c r="E48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>2.2475000000000001</v>
+        <v>1.8837999999999999</v>
       </c>
       <c r="B49" s="1">
-        <v>5.4077000000000002</v>
+        <v>4.7632000000000003</v>
       </c>
       <c r="C49" s="1">
-        <v>4.0685000000000002</v>
+        <v>4.6562999999999999</v>
       </c>
       <c r="D49" s="1">
-        <v>4.7172999999999998</v>
+        <v>5.2325999999999997</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>2.5447000000000002</v>
+        <v>2.2475000000000001</v>
       </c>
       <c r="B50" s="1">
-        <v>5.0753000000000004</v>
+        <v>5.4077000000000002</v>
       </c>
       <c r="C50" s="1">
-        <v>5.9532999999999996</v>
+        <v>4.0685000000000002</v>
       </c>
       <c r="D50" s="1">
-        <v>4.9021999999999997</v>
+        <v>4.7172999999999998</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>1.9771000000000001</v>
+        <v>2.5447000000000002</v>
       </c>
       <c r="B51" s="1">
-        <v>4.4800000000000004</v>
+        <v>5.0753000000000004</v>
       </c>
       <c r="C51" s="1">
-        <v>4.0906000000000002</v>
+        <v>5.9532999999999996</v>
       </c>
       <c r="D51" s="1">
-        <v>3.3913000000000002</v>
+        <v>4.9021999999999997</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>2.3879999999999999</v>
+        <v>1.9771000000000001</v>
       </c>
       <c r="B52" s="1">
-        <v>5.8750999999999998</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="C52" s="1">
-        <v>7.54</v>
+        <v>4.0906000000000002</v>
       </c>
       <c r="D52" s="1">
-        <v>5.7964000000000002</v>
+        <v>3.3913000000000002</v>
       </c>
       <c r="E52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>1.8290999999999999</v>
+        <v>2.3879999999999999</v>
       </c>
       <c r="B53" s="1">
-        <v>4.4279000000000002</v>
+        <v>5.8750999999999998</v>
       </c>
       <c r="C53" s="1">
-        <v>3.6212</v>
+        <v>7.54</v>
       </c>
       <c r="D53" s="1">
-        <v>4.5536000000000003</v>
+        <v>5.7964000000000002</v>
       </c>
       <c r="E53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>1.6662999999999999</v>
+        <v>1.8290999999999999</v>
       </c>
       <c r="B54" s="1">
-        <v>5.3147000000000002</v>
+        <v>4.4279000000000002</v>
       </c>
       <c r="C54" s="1">
-        <v>5.3996000000000004</v>
+        <v>3.6212</v>
       </c>
       <c r="D54" s="1">
-        <v>4.335</v>
+        <v>4.5536000000000003</v>
       </c>
       <c r="E54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>2.1565500000000002</v>
+        <v>1.6662999999999999</v>
       </c>
       <c r="B55" s="1">
-        <v>7.7543800000000003</v>
+        <v>5.3147000000000002</v>
       </c>
       <c r="C55" s="1">
-        <v>11.242599999999999</v>
+        <v>5.3996000000000004</v>
       </c>
       <c r="D55" s="1">
-        <v>7.8611399999999998</v>
+        <v>4.335</v>
       </c>
       <c r="E55" t="s">
         <v>48</v>
@@ -1579,152 +1600,152 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>2.0816499999999998</v>
+        <v>2.1565500000000002</v>
       </c>
       <c r="B56" s="1">
-        <v>5.8959099999999998</v>
+        <v>7.7543800000000003</v>
       </c>
       <c r="C56" s="1">
-        <v>4.5384000000000002</v>
+        <v>11.242599999999999</v>
       </c>
       <c r="D56" s="1">
-        <v>5.0884200000000002</v>
+        <v>7.8611399999999998</v>
       </c>
       <c r="E56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>1.8727799999999999</v>
+        <v>2.0816499999999998</v>
       </c>
       <c r="B57" s="1">
-        <v>5.10609</v>
+        <v>5.8959099999999998</v>
       </c>
       <c r="C57" s="1">
-        <v>6.14656</v>
+        <v>4.5384000000000002</v>
       </c>
       <c r="D57" s="1">
-        <v>5.3607100000000001</v>
+        <v>5.0884200000000002</v>
       </c>
       <c r="E57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>1.85256</v>
+        <v>1.8727799999999999</v>
       </c>
       <c r="B58" s="1">
-        <v>4.6772299999999998</v>
+        <v>5.10609</v>
       </c>
       <c r="C58" s="1">
-        <v>3.7040000000000002</v>
+        <v>6.14656</v>
       </c>
       <c r="D58" s="1">
-        <v>4.4955600000000002</v>
+        <v>5.3607100000000001</v>
       </c>
       <c r="E58" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>2.1807400000000001</v>
+        <v>1.85256</v>
       </c>
       <c r="B59" s="1">
-        <v>4.7099299999999999</v>
+        <v>4.6772299999999998</v>
       </c>
       <c r="C59" s="1">
-        <v>6.4503599999999999</v>
+        <v>3.7040000000000002</v>
       </c>
       <c r="D59" s="1">
-        <v>4.8467399999999996</v>
+        <v>4.4955600000000002</v>
       </c>
       <c r="E59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>2.0447199999999999</v>
+        <v>2.1807400000000001</v>
       </c>
       <c r="B60" s="1">
-        <v>4.4820200000000003</v>
+        <v>4.7099299999999999</v>
       </c>
       <c r="C60" s="1">
-        <v>4.0722199999999997</v>
+        <v>6.4503599999999999</v>
       </c>
       <c r="D60" s="1">
-        <v>3.9333499999999999</v>
+        <v>4.8467399999999996</v>
       </c>
       <c r="E60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>1.82334</v>
+        <v>2.0447199999999999</v>
       </c>
       <c r="B61" s="1">
-        <v>6.36022</v>
+        <v>4.4820200000000003</v>
       </c>
       <c r="C61" s="1">
-        <v>5.9431700000000003</v>
+        <v>4.0722199999999997</v>
       </c>
       <c r="D61" s="1">
-        <v>6.0985800000000001</v>
+        <v>3.9333499999999999</v>
       </c>
       <c r="E61" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>2.1421000000000001</v>
+        <v>1.82334</v>
       </c>
       <c r="B62" s="1">
-        <v>4.1034100000000002</v>
+        <v>6.36022</v>
       </c>
       <c r="C62" s="1">
-        <v>4.1450800000000001</v>
+        <v>5.9431700000000003</v>
       </c>
       <c r="D62" s="1">
-        <v>4.1949899999999998</v>
+        <v>6.0985800000000001</v>
       </c>
       <c r="E62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>1.6808099999999999</v>
+        <v>2.1421000000000001</v>
       </c>
       <c r="B63" s="1">
-        <v>4.3286100000000003</v>
+        <v>4.1034100000000002</v>
       </c>
       <c r="C63" s="1">
-        <v>3.9893200000000002</v>
+        <v>4.1450800000000001</v>
       </c>
       <c r="D63" s="1">
-        <v>4.60921</v>
+        <v>4.1949899999999998</v>
       </c>
       <c r="E63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>1.9129799999999999</v>
+        <v>1.6808099999999999</v>
       </c>
       <c r="B64" s="1">
-        <v>6.4840600000000004</v>
+        <v>4.3286100000000003</v>
       </c>
       <c r="C64" s="1">
-        <v>6.6069300000000002</v>
+        <v>3.9893200000000002</v>
       </c>
       <c r="D64" s="1">
-        <v>5.8690499999999997</v>
+        <v>4.60921</v>
       </c>
       <c r="E64" t="s">
         <v>56</v>
@@ -1732,152 +1753,152 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>1.8406899999999999</v>
+        <v>1.9129799999999999</v>
       </c>
       <c r="B65" s="1">
-        <v>6.97323</v>
+        <v>6.4840600000000004</v>
       </c>
       <c r="C65" s="1">
-        <v>10.971399999999999</v>
+        <v>6.6069300000000002</v>
       </c>
       <c r="D65" s="1">
-        <v>6.1424399999999997</v>
+        <v>5.8690499999999997</v>
       </c>
       <c r="E65" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>1.89791</v>
+        <v>1.8406899999999999</v>
       </c>
       <c r="B66" s="1">
-        <v>7.2530400000000004</v>
+        <v>6.97323</v>
       </c>
       <c r="C66" s="1">
-        <v>7.0184600000000001</v>
+        <v>10.971399999999999</v>
       </c>
       <c r="D66" s="1">
-        <v>7.3036599999999998</v>
+        <v>6.1424399999999997</v>
       </c>
       <c r="E66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>1.9806699999999999</v>
+        <v>1.89791</v>
       </c>
       <c r="B67" s="1">
-        <v>5.0252299999999996</v>
+        <v>7.2530400000000004</v>
       </c>
       <c r="C67" s="1">
-        <v>6.40062</v>
+        <v>7.0184600000000001</v>
       </c>
       <c r="D67" s="1">
-        <v>5.9591900000000004</v>
+        <v>7.3036599999999998</v>
       </c>
       <c r="E67" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>2.32924</v>
+        <v>1.9806699999999999</v>
       </c>
       <c r="B68" s="1">
-        <v>4.9396300000000002</v>
+        <v>5.0252299999999996</v>
       </c>
       <c r="C68" s="1">
-        <v>6.75352</v>
+        <v>6.40062</v>
       </c>
       <c r="D68" s="1">
-        <v>5.4966600000000003</v>
+        <v>5.9591900000000004</v>
       </c>
       <c r="E68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>3.2484000000000002</v>
+        <v>2.32924</v>
       </c>
       <c r="B69" s="1">
-        <v>10.775700000000001</v>
+        <v>4.9396300000000002</v>
       </c>
       <c r="C69" s="1">
-        <v>14.213800000000001</v>
+        <v>6.75352</v>
       </c>
       <c r="D69" s="1">
-        <v>9.76877</v>
+        <v>5.4966600000000003</v>
       </c>
       <c r="E69" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>2.1857099999999998</v>
+        <v>3.2484000000000002</v>
       </c>
       <c r="B70" s="1">
-        <v>5.8019600000000002</v>
+        <v>10.775700000000001</v>
       </c>
       <c r="C70" s="1">
-        <v>7.9424999999999999</v>
+        <v>14.213800000000001</v>
       </c>
       <c r="D70" s="1">
-        <v>6.9599700000000002</v>
+        <v>9.76877</v>
       </c>
       <c r="E70" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>1.88524</v>
+        <v>2.1857099999999998</v>
       </c>
       <c r="B71" s="1">
-        <v>5.3892699999999998</v>
+        <v>5.8019600000000002</v>
       </c>
       <c r="C71" s="1">
-        <v>4.4772499999999997</v>
+        <v>7.9424999999999999</v>
       </c>
       <c r="D71" s="1">
-        <v>4.7217900000000004</v>
+        <v>6.9599700000000002</v>
       </c>
       <c r="E71" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>2.9637600000000002</v>
+        <v>1.88524</v>
       </c>
       <c r="B72" s="1">
-        <v>8.5032200000000007</v>
+        <v>5.3892699999999998</v>
       </c>
       <c r="C72" s="1">
-        <v>11.0967</v>
+        <v>4.4772499999999997</v>
       </c>
       <c r="D72" s="1">
-        <v>8.2511700000000001</v>
+        <v>4.7217900000000004</v>
       </c>
       <c r="E72" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>1.7726200000000001</v>
+        <v>2.9637600000000002</v>
       </c>
       <c r="B73" s="1">
-        <v>4.8235200000000003</v>
+        <v>8.5032200000000007</v>
       </c>
       <c r="C73" s="1">
-        <v>4.3248800000000003</v>
+        <v>11.0967</v>
       </c>
       <c r="D73" s="1">
-        <v>4.7661300000000004</v>
+        <v>8.2511700000000001</v>
       </c>
       <c r="E73" t="s">
         <v>64</v>
@@ -1885,152 +1906,152 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>1.7480100000000001</v>
+        <v>1.7726200000000001</v>
       </c>
       <c r="B74" s="1">
-        <v>4.9497999999999998</v>
+        <v>4.8235200000000003</v>
       </c>
       <c r="C74" s="1">
-        <v>3.5926200000000001</v>
+        <v>4.3248800000000003</v>
       </c>
       <c r="D74" s="1">
-        <v>5.7105100000000002</v>
+        <v>4.7661300000000004</v>
       </c>
       <c r="E74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>2.2646999999999999</v>
+        <v>1.7480100000000001</v>
       </c>
       <c r="B75" s="1">
-        <v>4.67727</v>
+        <v>4.9497999999999998</v>
       </c>
       <c r="C75" s="1">
-        <v>4.4470099999999997</v>
+        <v>3.5926200000000001</v>
       </c>
       <c r="D75" s="1">
-        <v>5.5617200000000002</v>
+        <v>5.7105100000000002</v>
       </c>
       <c r="E75" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>2.3515100000000002</v>
+        <v>2.2646999999999999</v>
       </c>
       <c r="B76" s="1">
-        <v>8.01891</v>
+        <v>4.67727</v>
       </c>
       <c r="C76" s="1">
-        <v>11.7882</v>
+        <v>4.4470099999999997</v>
       </c>
       <c r="D76" s="1">
-        <v>5.97818</v>
+        <v>5.5617200000000002</v>
       </c>
       <c r="E76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>2.2187299999999999</v>
+        <v>2.3515100000000002</v>
       </c>
       <c r="B77" s="1">
-        <v>4.8506799999999997</v>
+        <v>8.01891</v>
       </c>
       <c r="C77" s="1">
-        <v>3.5284800000000001</v>
+        <v>11.7882</v>
       </c>
       <c r="D77" s="1">
-        <v>4.6358899999999998</v>
+        <v>5.97818</v>
       </c>
       <c r="E77" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>1.9793400000000001</v>
+        <v>2.2187299999999999</v>
       </c>
       <c r="B78" s="1">
-        <v>5.3851899999999997</v>
+        <v>4.8506799999999997</v>
       </c>
       <c r="C78" s="1">
-        <v>3.5132699999999999</v>
+        <v>3.5284800000000001</v>
       </c>
       <c r="D78" s="1">
-        <v>4.95221</v>
+        <v>4.6358899999999998</v>
       </c>
       <c r="E78" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>1.6397299999999999</v>
+        <v>1.9793400000000001</v>
       </c>
       <c r="B79" s="1">
-        <v>6.41153</v>
+        <v>5.3851899999999997</v>
       </c>
       <c r="C79" s="1">
-        <v>10.8146</v>
+        <v>3.5132699999999999</v>
       </c>
       <c r="D79" s="1">
-        <v>5.8192000000000004</v>
+        <v>4.95221</v>
       </c>
       <c r="E79" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>2.28261</v>
+        <v>1.6397299999999999</v>
       </c>
       <c r="B80" s="1">
-        <v>5.1218300000000001</v>
+        <v>6.41153</v>
       </c>
       <c r="C80" s="1">
-        <v>6.9454799999999999</v>
+        <v>10.8146</v>
       </c>
       <c r="D80" s="1">
-        <v>4.3998699999999999</v>
+        <v>5.8192000000000004</v>
       </c>
       <c r="E80" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>1.8399799999999999</v>
+        <v>2.28261</v>
       </c>
       <c r="B81" s="1">
-        <v>4.4025600000000003</v>
+        <v>5.1218300000000001</v>
       </c>
       <c r="C81" s="1">
-        <v>3.9533200000000002</v>
+        <v>6.9454799999999999</v>
       </c>
       <c r="D81" s="1">
-        <v>4.2611499999999998</v>
+        <v>4.3998699999999999</v>
       </c>
       <c r="E81" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>3.1504099999999999</v>
+        <v>1.8399799999999999</v>
       </c>
       <c r="B82" s="1">
-        <v>8.11843</v>
+        <v>4.4025600000000003</v>
       </c>
       <c r="C82" s="1">
-        <v>11.0365</v>
+        <v>3.9533200000000002</v>
       </c>
       <c r="D82" s="1">
-        <v>7.80044</v>
+        <v>4.2611499999999998</v>
       </c>
       <c r="E82" t="s">
         <v>72</v>
@@ -2038,141 +2059,159 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>2.7759800000000001</v>
+        <v>3.1504099999999999</v>
       </c>
       <c r="B83" s="1">
-        <v>8.3954500000000003</v>
+        <v>8.11843</v>
       </c>
       <c r="C83" s="1">
-        <v>11.0786</v>
+        <v>11.0365</v>
       </c>
       <c r="D83" s="1">
-        <v>7.6844099999999997</v>
+        <v>7.80044</v>
       </c>
       <c r="E83" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>1.8056000000000001</v>
+        <v>2.7759800000000001</v>
       </c>
       <c r="B84" s="1">
-        <v>4.2852199999999998</v>
+        <v>8.3954500000000003</v>
       </c>
       <c r="C84" s="1">
-        <v>3.7766899999999999</v>
+        <v>11.0786</v>
       </c>
       <c r="D84" s="1">
-        <v>4.0001199999999999</v>
+        <v>7.6844099999999997</v>
       </c>
       <c r="E84" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>1.8018700000000001</v>
+        <v>1.8056000000000001</v>
       </c>
       <c r="B85" s="1">
-        <v>3.9216899999999999</v>
+        <v>4.2852199999999998</v>
       </c>
       <c r="C85" s="1">
-        <v>4.0652600000000003</v>
+        <v>3.7766899999999999</v>
       </c>
       <c r="D85" s="1">
-        <v>4.3036000000000003</v>
+        <v>4.0001199999999999</v>
       </c>
       <c r="E85" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>2.1976800000000001</v>
+        <v>1.8018700000000001</v>
       </c>
       <c r="B86" s="1">
-        <v>8.0289199999999994</v>
+        <v>3.9216899999999999</v>
       </c>
       <c r="C86" s="1">
-        <v>7.9829100000000004</v>
+        <v>4.0652600000000003</v>
       </c>
       <c r="D86" s="1">
-        <v>7.7209199999999996</v>
+        <v>4.3036000000000003</v>
       </c>
       <c r="E86" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>1.5888599999999999</v>
+        <v>2.1976800000000001</v>
       </c>
       <c r="B87" s="1">
-        <v>4.6868600000000002</v>
+        <v>8.0289199999999994</v>
       </c>
       <c r="C87" s="1">
-        <v>4.70181</v>
+        <v>7.9829100000000004</v>
       </c>
       <c r="D87" s="1">
-        <v>4.2731000000000003</v>
+        <v>7.7209199999999996</v>
       </c>
       <c r="E87" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>1.4771799999999999</v>
+        <v>1.5888599999999999</v>
       </c>
       <c r="B88" s="1">
-        <v>4.58995</v>
+        <v>4.6868600000000002</v>
       </c>
       <c r="C88" s="1">
-        <v>4.3322700000000003</v>
+        <v>4.70181</v>
       </c>
       <c r="D88" s="1">
-        <v>4.3654500000000001</v>
+        <v>4.2731000000000003</v>
       </c>
       <c r="E88" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>1.6299699999999999</v>
+        <v>1.4771799999999999</v>
       </c>
       <c r="B89" s="1">
-        <v>5.2737699999999998</v>
+        <v>4.58995</v>
       </c>
       <c r="C89" s="1">
-        <v>3.8001900000000002</v>
+        <v>4.3322700000000003</v>
       </c>
       <c r="D89" s="1">
-        <v>4.9052600000000002</v>
+        <v>4.3654500000000001</v>
       </c>
       <c r="E89" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
+        <v>1.6299699999999999</v>
+      </c>
+      <c r="B90" s="1">
+        <v>5.2737699999999998</v>
+      </c>
+      <c r="C90" s="1">
+        <v>3.8001900000000002</v>
+      </c>
+      <c r="D90" s="1">
+        <v>4.9052600000000002</v>
+      </c>
+      <c r="E90" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
         <v>1.76789</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B91" s="1">
         <v>5.3707200000000004</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C91" s="1">
         <v>5.1930300000000003</v>
       </c>
-      <c r="D90" s="1">
+      <c r="D91" s="1">
         <v>4.5277500000000002</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E91" t="s">
         <v>80</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>